--- a/Makslip-2081-1st/Markslip-(7 EM).xlsx
+++ b/Makslip-2081-1st/Markslip-(7 EM).xlsx
@@ -223,7 +223,7 @@
     <t>FM=</t>
   </si>
   <si>
-    <t>https://bit.ly/3SrTnrm</t>
+    <t>https://bit.ly/4dncgUa</t>
   </si>
 </sst>
 </file>
